--- a/Emmersive/package/LangMod/EN/emmersive_localizations_en.xlsx
+++ b/Emmersive/package/LangMod/EN/emmersive_localizations_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\Emmersive\package\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C2BCB1-FFB6-4E82-AFC6-7FEBF320C240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6373CEC8-7D88-4D08-A51B-C6F56320D715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="1020" windowWidth="26220" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18885" yWindow="1515" windowWidth="26220" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="186">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -575,6 +575,28 @@
   </si>
   <si>
     <t>&lt;color=green&gt;Successful:&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Failed to open .json file, will try notepad instead</t>
+  </si>
+  <si>
+    <t>em_ui_failed_shellex</t>
+  </si>
+  <si>
+    <t>.json ファイルを開けませんでした。代わりにメモ帳で開きます</t>
+  </si>
+  <si>
+    <t>em_ui_failed_shellex2</t>
+  </si>
+  <si>
+    <t>Failed to open provider param file:
+{0}
+{1}</t>
+  </si>
+  <si>
+    <t>プロバイダーのパラメータ ファイルを開けませんでした：
+{0}
+{1}</t>
   </si>
 </sst>
 </file>
@@ -933,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFC83"/>
+  <dimension ref="A1:XFC85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C31" sqref="C21:C31"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5"/>
@@ -1324,487 +1346,499 @@
     </row>
     <row r="32" spans="1:4" ht="23.25">
       <c r="A32" s="5" t="s">
-        <v>33</v>
+        <v>181</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5" t="s">
-        <v>115</v>
+        <v>182</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="23.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="69.75">
       <c r="A33" s="5" t="s">
-        <v>34</v>
+        <v>183</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5" t="s">
-        <v>116</v>
+        <v>185</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>73</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="23.25">
       <c r="A34" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="23.25">
       <c r="A35" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="23.25">
       <c r="A36" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" s="3" customFormat="1" ht="23.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="23.25">
       <c r="A37" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="23.25">
       <c r="A38" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B38" s="5"/>
-      <c r="C38" t="s">
-        <v>141</v>
+      <c r="C38" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="23.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="3" customFormat="1" ht="23.25">
       <c r="A39" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="23.25">
       <c r="A40" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B40" s="5"/>
-      <c r="C40" s="5" t="s">
-        <v>122</v>
+      <c r="C40" t="s">
+        <v>141</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>79</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="23.25">
       <c r="A41" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="23.25">
       <c r="A42" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="23.25">
       <c r="A43" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="23.25">
       <c r="A44" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="23.25">
       <c r="A45" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="23.25">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="23.25">
       <c r="A47" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="23.25">
       <c r="A48" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="23.25">
       <c r="A49" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="23.25">
       <c r="A50" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="23.25">
       <c r="A51" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="23.25">
       <c r="A52" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="23.25">
       <c r="A53" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="23.25">
       <c r="A54" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="5" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="23.25">
       <c r="A55" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="23.25">
       <c r="A56" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="23.25">
       <c r="A57" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="23.25">
       <c r="A58" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" s="2" customFormat="1" ht="23.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="23.25">
       <c r="A59" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" s="2" customFormat="1" ht="23.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="23.25">
       <c r="A60" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="23.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="2" customFormat="1" ht="23.25">
       <c r="A61" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="23.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="2" customFormat="1" ht="23.25">
       <c r="A62" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="23.25">
       <c r="A63" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="23.25">
       <c r="A64" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="23.25">
       <c r="A65" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="23.25">
       <c r="A66" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="23.25">
       <c r="A67" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="23.25">
       <c r="A68" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="23.25">
       <c r="A69" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="23.25">
       <c r="A70" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="23.25">
+      <c r="A71" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="23.25">
+      <c r="A72" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D72" s="5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="23.25">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="D71" s="5"/>
-    </row>
-    <row r="72" spans="1:4" ht="23.25">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
     </row>
     <row r="73" spans="1:4" ht="23.25">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
       <c r="D73" s="5"/>
     </row>
     <row r="74" spans="1:4" ht="23.25">
@@ -1866,6 +1900,18 @@
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
+    </row>
+    <row r="84" spans="1:4" ht="23.25">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+    </row>
+    <row r="85" spans="1:4" ht="23.25">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Emmersive/package/LangMod/EN/emmersive_localizations_en.xlsx
+++ b/Emmersive/package/LangMod/EN/emmersive_localizations_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\Emmersive\package\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6373CEC8-7D88-4D08-A51B-C6F56320D715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F73E70-9E42-4000-B7EF-77DFEA6B5E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18885" yWindow="1515" windowWidth="26220" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="2220" windowWidth="26220" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="205">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,9 +119,6 @@
     <t>em_ui_alias</t>
   </si>
   <si>
-    <t>Provider Nickname</t>
-  </si>
-  <si>
     <t>em_ui_paste_api_key</t>
   </si>
   <si>
@@ -372,9 +369,6 @@
     <t xml:space="preserve">カスタムエンドポイント  </t>
   </si>
   <si>
-    <t xml:space="preserve">プロバイダーニックネーム  </t>
-  </si>
-  <si>
     <t xml:space="preserve">APIキー  </t>
   </si>
   <si>
@@ -518,18 +512,6 @@
   </si>
   <si>
     <t>Prompt Usage:</t>
-  </si>
-  <si>
-    <t>Tokens/Min:</t>
-  </si>
-  <si>
-    <t>Tokens/Hour:</t>
-  </si>
-  <si>
-    <t>Requests/Min:</t>
-  </si>
-  <si>
-    <t>Requests/Hour:</t>
   </si>
   <si>
     <t>em_ui_requests_rpm</t>
@@ -597,6 +579,84 @@
     <t>プロバイダーのパラメータ ファイルを開けませんでした：
 {0}
 {1}</t>
+  </si>
+  <si>
+    <t>プロバイダーニックネーム (&lt;color=red&gt;変更後にパラメータを再編集する必要がある&lt;/color&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provider Nickname (&lt;color=red&gt;Params changes will be lost&lt;/color&gt;) </t>
+  </si>
+  <si>
+    <t>em_ui_switch_scheduling</t>
+  </si>
+  <si>
+    <t>switching scheduling mode {0} -&gt; {1}</t>
+  </si>
+  <si>
+    <t>em_ui_scene_scheduled</t>
+  </si>
+  <si>
+    <t>em_ui_scene_requesting</t>
+  </si>
+  <si>
+    <t>em_ui_scene_complete</t>
+  </si>
+  <si>
+    <t>em_ui_scene_timeout</t>
+  </si>
+  <si>
+    <t>em_ui_scene_failed</t>
+  </si>
+  <si>
+    <t>em_ui_scene_retry_end</t>
+  </si>
+  <si>
+    <t>scene play scheduled, retries={0}</t>
+  </si>
+  <si>
+    <t>scene requesting</t>
+  </si>
+  <si>
+    <t>scene received
+{0}</t>
+  </si>
+  <si>
+    <t>em_ui_tokens_tpr</t>
+  </si>
+  <si>
+    <t>Requests Per Min:</t>
+  </si>
+  <si>
+    <t>Requests Per Hour:</t>
+  </si>
+  <si>
+    <t>Tokens Per Min:</t>
+  </si>
+  <si>
+    <t>Tokens Per Hour:</t>
+  </si>
+  <si>
+    <t>scene request timeout after {0}s</t>
+  </si>
+  <si>
+    <t>scene request failed: {0}
+{1}</t>
+  </si>
+  <si>
+    <t>scene request has no more retries</t>
+  </si>
+  <si>
+    <t>em_ui_scene_parse_error</t>
+  </si>
+  <si>
+    <t>scene failed to parse scripts
+{0}</t>
+  </si>
+  <si>
+    <t>Tokens Per Request:</t>
+  </si>
+  <si>
+    <t>トークン/リクエスト:</t>
   </si>
 </sst>
 </file>
@@ -955,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFC85"/>
+  <dimension ref="A1:XFC101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5"/>
@@ -1008,16 +1068,16 @@
     </row>
     <row r="4" spans="1:4" s="6" customFormat="1" ht="23.25" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="23.25">
@@ -1026,7 +1086,7 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>8</v>
@@ -1038,7 +1098,7 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>9</v>
@@ -1050,7 +1110,7 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>10</v>
@@ -1062,7 +1122,7 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>12</v>
@@ -1074,7 +1134,7 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>14</v>
@@ -1086,7 +1146,7 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>16</v>
@@ -1098,7 +1158,7 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>18</v>
@@ -1110,10 +1170,10 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="23.25">
@@ -1122,10 +1182,10 @@
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="23.25">
@@ -1134,7 +1194,7 @@
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>22</v>
@@ -1146,7 +1206,7 @@
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>24</v>
@@ -1158,736 +1218,791 @@
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="23.25">
+    <row r="17" spans="1:4" ht="46.5">
       <c r="A17" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
-        <v>112</v>
+        <v>180</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>28</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="46.5">
       <c r="A18" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="23.25">
       <c r="A19" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="23.25">
       <c r="A20" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="23.25">
       <c r="A21" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="23.25">
       <c r="A22" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="23.25">
       <c r="A23" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="23.25">
       <c r="A24" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="23.25">
       <c r="A25" s="5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="23.25">
       <c r="A26" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>164</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="23.25">
       <c r="A27" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="23.25">
       <c r="A28" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="23.25">
       <c r="A29" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="23.25">
       <c r="A30" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="23.25">
       <c r="A31" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="23.25">
       <c r="A32" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="69.75">
       <c r="A33" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="23.25">
       <c r="A34" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="23.25">
       <c r="A35" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="23.25">
       <c r="A36" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="23.25">
       <c r="A37" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="23.25">
       <c r="A38" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="3" customFormat="1" ht="23.25">
       <c r="A39" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="23.25">
       <c r="A40" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="23.25">
       <c r="A41" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="23.25">
       <c r="A42" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="23.25">
       <c r="A43" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="23.25">
       <c r="A44" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="23.25">
       <c r="A45" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="23.25">
       <c r="A46" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="23.25">
       <c r="A47" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="23.25">
       <c r="A48" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="23.25">
       <c r="A49" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="23.25">
       <c r="A50" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="23.25">
       <c r="A51" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="23.25">
       <c r="A52" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="23.25">
       <c r="A53" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="23.25">
       <c r="A54" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="23.25">
       <c r="A55" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="23.25">
       <c r="A56" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="23.25">
       <c r="A57" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="23.25">
       <c r="A58" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="23.25">
       <c r="A59" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="23.25">
       <c r="A60" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="2" customFormat="1" ht="23.25">
       <c r="A61" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="2" customFormat="1" ht="23.25">
       <c r="A62" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="23.25">
       <c r="A63" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="23.25">
       <c r="A64" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="23.25">
       <c r="A65" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="23.25">
       <c r="A66" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="23.25">
       <c r="A67" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="23.25">
       <c r="A68" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="23.25">
       <c r="A69" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="23.25">
       <c r="A70" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="23.25">
       <c r="A71" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="5"/>
       <c r="C71" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="23.25">
       <c r="A72" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="5"/>
       <c r="C72" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="23.25">
-      <c r="A73" s="5"/>
+      <c r="A73" s="5" t="s">
+        <v>182</v>
+      </c>
       <c r="B73" s="5"/>
-      <c r="D73" s="5"/>
+      <c r="C73" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="74" spans="1:4" ht="23.25">
-      <c r="A74" s="5"/>
+      <c r="A74" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
+      <c r="C74" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="75" spans="1:4" ht="23.25">
-      <c r="A75" s="5"/>
+      <c r="A75" s="5" t="s">
+        <v>185</v>
+      </c>
       <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-    </row>
-    <row r="76" spans="1:4" ht="23.25">
-      <c r="A76" s="5"/>
+      <c r="C75" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="46.5">
+      <c r="A76" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-    </row>
-    <row r="77" spans="1:4" ht="23.25">
-      <c r="A77" s="5"/>
+      <c r="C76" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="46.5">
+      <c r="A77" s="5" t="s">
+        <v>186</v>
+      </c>
       <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
+      <c r="C77" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="78" spans="1:4" ht="23.25">
-      <c r="A78" s="5"/>
+      <c r="A78" s="5" t="s">
+        <v>187</v>
+      </c>
       <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-    </row>
-    <row r="79" spans="1:4" ht="23.25">
-      <c r="A79" s="5"/>
+      <c r="C78" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="46.5">
+      <c r="A79" s="5" t="s">
+        <v>188</v>
+      </c>
       <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
+      <c r="C79" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="80" spans="1:4" ht="23.25">
-      <c r="A80" s="5"/>
+      <c r="A80" s="5" t="s">
+        <v>189</v>
+      </c>
       <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
+      <c r="C80" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="81" spans="1:4" ht="23.25">
-      <c r="A81" s="5"/>
+      <c r="A81" s="5" t="s">
+        <v>193</v>
+      </c>
       <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
+      <c r="C81" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="82" spans="1:4" ht="23.25">
       <c r="A82" s="5"/>
@@ -1912,6 +2027,102 @@
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
+    </row>
+    <row r="86" spans="1:4" ht="23.25">
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+    </row>
+    <row r="87" spans="1:4" ht="23.25">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+    </row>
+    <row r="88" spans="1:4" ht="23.25">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+    </row>
+    <row r="89" spans="1:4" ht="23.25">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+    </row>
+    <row r="90" spans="1:4" ht="23.25">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+    </row>
+    <row r="91" spans="1:4" ht="23.25">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+    </row>
+    <row r="92" spans="1:4" ht="23.25">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+    </row>
+    <row r="93" spans="1:4" ht="23.25">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+    </row>
+    <row r="94" spans="1:4" ht="23.25">
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+    </row>
+    <row r="95" spans="1:4" ht="23.25">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+    </row>
+    <row r="96" spans="1:4" ht="23.25">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+    </row>
+    <row r="97" spans="1:4" ht="23.25">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+    </row>
+    <row r="98" spans="1:4" ht="23.25">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+    </row>
+    <row r="99" spans="1:4" ht="23.25">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+    </row>
+    <row r="100" spans="1:4" ht="23.25">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+    </row>
+    <row r="101" spans="1:4" ht="23.25">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Emmersive/package/LangMod/EN/emmersive_localizations_en.xlsx
+++ b/Emmersive/package/LangMod/EN/emmersive_localizations_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\Emmersive\package\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F73E70-9E42-4000-B7EF-77DFEA6B5E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF742672-2904-4DFE-A8E4-9707BFFFE001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="2220" windowWidth="26220" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20175" yWindow="3255" windowWidth="26220" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="216">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -581,12 +581,6 @@
 {1}</t>
   </si>
   <si>
-    <t>プロバイダーニックネーム (&lt;color=red&gt;変更後にパラメータを再編集する必要がある&lt;/color&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provider Nickname (&lt;color=red&gt;Params changes will be lost&lt;/color&gt;) </t>
-  </si>
-  <si>
     <t>em_ui_switch_scheduling</t>
   </si>
   <si>
@@ -657,6 +651,45 @@
   </si>
   <si>
     <t>トークン/リクエスト:</t>
+  </si>
+  <si>
+    <t>em_ui_config_reset</t>
+  </si>
+  <si>
+    <t>「Elin with AI」の設定が{0}にリセットされました</t>
+  </si>
+  <si>
+    <t>Elin with AI configuration has been resetted to {0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provider Nickname (&lt;i&gt;Changes will reset params&lt;/i&gt;) </t>
+  </si>
+  <si>
+    <t>プロバイダーニックネーム (&lt;i&gt;変更後にパラメータを再編集する必要がある&lt;/i&gt;)</t>
+  </si>
+  <si>
+    <t>Mod設定を開く</t>
+  </si>
+  <si>
+    <t>em_ui_config_open</t>
+  </si>
+  <si>
+    <t>em_ui_config_changed</t>
+  </si>
+  <si>
+    <t>Edit Configuration</t>
+  </si>
+  <si>
+    <t>Emmersive configuration changed</t>
+  </si>
+  <si>
+    <t>em_character_data_statuses</t>
+  </si>
+  <si>
+    <t>ステータス</t>
+  </si>
+  <si>
+    <t>Statuses</t>
   </si>
 </sst>
 </file>
@@ -1017,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFC101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5"/>
@@ -1224,16 +1257,16 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="46.5">
+    <row r="17" spans="1:4" ht="23.25">
       <c r="A17" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="46.5">
@@ -1329,7 +1362,7 @@
         <v>162</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="23.25">
@@ -1341,7 +1374,7 @@
         <v>163</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="23.25">
@@ -1389,7 +1422,7 @@
         <v>167</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="23.25">
@@ -1401,7 +1434,7 @@
         <v>168</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="23.25">
@@ -1898,135 +1931,159 @@
     </row>
     <row r="73" spans="1:4" ht="23.25">
       <c r="A73" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="23.25">
       <c r="A74" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B74" s="5"/>
       <c r="C74" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="23.25">
       <c r="A75" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B75" s="5"/>
       <c r="C75" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="46.5">
       <c r="A76" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B76" s="5"/>
       <c r="C76" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="46.5">
       <c r="A77" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="23.25">
       <c r="A78" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B78" s="5"/>
       <c r="C78" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="46.5">
       <c r="A79" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="23.25">
       <c r="A80" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="23.25">
       <c r="A81" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="23.25">
+      <c r="A82" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="D81" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="23.25">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
+      <c r="D82" s="5" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="83" spans="1:4" ht="23.25">
-      <c r="A83" s="5"/>
+      <c r="A83" s="5" t="s">
+        <v>209</v>
+      </c>
       <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
+      <c r="C83" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="84" spans="1:4" ht="23.25">
-      <c r="A84" s="5"/>
+      <c r="A84" s="5" t="s">
+        <v>210</v>
+      </c>
       <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
+      <c r="C84" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="85" spans="1:4" ht="23.25">
-      <c r="A85" s="5"/>
+      <c r="A85" s="5" t="s">
+        <v>213</v>
+      </c>
       <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
+      <c r="C85" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="86" spans="1:4" ht="23.25">
       <c r="A86" s="5"/>

--- a/Emmersive/package/LangMod/EN/emmersive_localizations_en.xlsx
+++ b/Emmersive/package/LangMod/EN/emmersive_localizations_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\Emmersive\package\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF742672-2904-4DFE-A8E4-9707BFFFE001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9F6DA3-7D33-45FB-A583-20CCC5C8C8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20175" yWindow="3255" windowWidth="26220" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13290" yWindow="3150" windowWidth="26220" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="226">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -689,7 +689,37 @@
     <t>ステータス</t>
   </si>
   <si>
-    <t>Statuses</t>
+    <t>Conditions</t>
+  </si>
+  <si>
+    <t>em_ui_scene_retry</t>
+  </si>
+  <si>
+    <t>scene request retry</t>
+  </si>
+  <si>
+    <t>em_zone_data_background</t>
+  </si>
+  <si>
+    <t>em_player_data_can_talk</t>
+  </si>
+  <si>
+    <t>em_character_data_can_talk</t>
+  </si>
+  <si>
+    <t>em_zone_data_in_room</t>
+  </si>
+  <si>
+    <t>Should React</t>
+  </si>
+  <si>
+    <t>In Room</t>
+  </si>
+  <si>
+    <t>反応すべき</t>
+  </si>
+  <si>
+    <t>部屋の中で</t>
   </si>
 </sst>
 </file>
@@ -1050,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFC101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87:D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5"/>
@@ -2086,34 +2116,64 @@
       </c>
     </row>
     <row r="86" spans="1:4" ht="23.25">
-      <c r="A86" s="5"/>
+      <c r="A86" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
+      <c r="C86" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="87" spans="1:4" ht="23.25">
-      <c r="A87" s="5"/>
+      <c r="A87" s="5" t="s">
+        <v>218</v>
+      </c>
       <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
+      <c r="C87" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="88" spans="1:4" ht="23.25">
-      <c r="A88" s="5"/>
+      <c r="A88" s="5" t="s">
+        <v>219</v>
+      </c>
       <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
+      <c r="C88" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="89" spans="1:4" ht="23.25">
-      <c r="A89" s="5"/>
+      <c r="A89" s="5" t="s">
+        <v>220</v>
+      </c>
       <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
+      <c r="C89" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="90" spans="1:4" ht="23.25">
-      <c r="A90" s="5"/>
+      <c r="A90" s="5" t="s">
+        <v>221</v>
+      </c>
       <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
+      <c r="C90" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="91" spans="1:4" ht="23.25">
       <c r="A91" s="5"/>

--- a/Emmersive/package/LangMod/EN/emmersive_localizations_en.xlsx
+++ b/Emmersive/package/LangMod/EN/emmersive_localizations_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\Emmersive\package\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9F6DA3-7D33-45FB-A583-20CCC5C8C8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A224E5-811A-4D85-8831-4CD24F7F0139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13290" yWindow="3150" windowWidth="26220" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="229">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -720,6 +720,15 @@
   </si>
   <si>
     <t>部屋の中で</t>
+  </si>
+  <si>
+    <t>em_nearby_characters_relationships</t>
+  </si>
+  <si>
+    <t>キャラクターの絆</t>
+  </si>
+  <si>
+    <t>Relationships</t>
   </si>
 </sst>
 </file>
@@ -1081,7 +1090,7 @@
   <dimension ref="A1:XFC101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A62" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87:D90"/>
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5"/>
@@ -2176,10 +2185,16 @@
       </c>
     </row>
     <row r="91" spans="1:4" ht="23.25">
-      <c r="A91" s="5"/>
+      <c r="A91" s="5" t="s">
+        <v>226</v>
+      </c>
       <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
+      <c r="C91" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="92" spans="1:4" ht="23.25">
       <c r="A92" s="5"/>

--- a/Emmersive/package/LangMod/EN/emmersive_localizations_en.xlsx
+++ b/Emmersive/package/LangMod/EN/emmersive_localizations_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\Emmersive\package\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A224E5-811A-4D85-8831-4CD24F7F0139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16A5180-77F6-4323-A3C3-E55B48F5D922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13290" yWindow="3150" windowWidth="26220" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16035" yWindow="1785" windowWidth="26220" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="265">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -327,12 +327,6 @@
     <t>em_ui_reload</t>
   </si>
   <si>
-    <t>em_ui_reload_prompts</t>
-  </si>
-  <si>
-    <t>Reload Prompts</t>
-  </si>
-  <si>
     <t>Reload</t>
   </si>
   <si>
@@ -542,9 +536,6 @@
   </si>
   <si>
     <t>トークン/時:</t>
-  </si>
-  <si>
-    <t>プロンプトを再読み込み</t>
   </si>
   <si>
     <t>&lt;color=green&gt;成功:&lt;/color&gt;</t>
@@ -683,9 +674,6 @@
     <t>Emmersive configuration changed</t>
   </si>
   <si>
-    <t>em_character_data_statuses</t>
-  </si>
-  <si>
     <t>ステータス</t>
   </si>
   <si>
@@ -722,13 +710,133 @@
     <t>部屋の中で</t>
   </si>
   <si>
-    <t>em_nearby_characters_relationships</t>
-  </si>
-  <si>
     <t>キャラクターの絆</t>
   </si>
   <si>
-    <t>Relationships</t>
+    <t>em_character_data_conditions</t>
+  </si>
+  <si>
+    <t>em_ui_hard_reset_prompts</t>
+  </si>
+  <si>
+    <t>すべてのカスタムプロンプト語を削除します</t>
+  </si>
+  <si>
+    <t>Delete All Custom Prompts</t>
+  </si>
+  <si>
+    <t>em_ui_non_provided</t>
+  </si>
+  <si>
+    <t>em_ui_reset</t>
+  </si>
+  <si>
+    <t>リセット</t>
+  </si>
+  <si>
+    <t>em_ui_edit</t>
+  </si>
+  <si>
+    <t>編集</t>
+  </si>
+  <si>
+    <t>em_ui_system_prompt</t>
+  </si>
+  <si>
+    <t>システムプロンプト</t>
+  </si>
+  <si>
+    <t>em_ui_zone</t>
+  </si>
+  <si>
+    <t>em_ui_open_folder</t>
+  </si>
+  <si>
+    <t>フォルダーを開く</t>
+  </si>
+  <si>
+    <t>em_ui_tab_characters</t>
+  </si>
+  <si>
+    <t>キャラクター設定</t>
+  </si>
+  <si>
+    <t>em_ui_chara_map</t>
+  </si>
+  <si>
+    <t>現在のマップの重要キャラクター</t>
+  </si>
+  <si>
+    <t>em_ui_tab_relations</t>
+  </si>
+  <si>
+    <t>em_ui_chara_relations</t>
+  </si>
+  <si>
+    <t>現在のマップのキャラクターの絆</t>
+  </si>
+  <si>
+    <t>em_ui_edit_relations</t>
+  </si>
+  <si>
+    <t>組み合わせたいキャラクターの絆を選択してください</t>
+  </si>
+  <si>
+    <t>em_ui_generate_relation</t>
+  </si>
+  <si>
+    <t>生成または編集</t>
+  </si>
+  <si>
+    <t>Reset</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>Open Folder</t>
+  </si>
+  <si>
+    <t>Important Characters on the Current Map</t>
+  </si>
+  <si>
+    <t>Create or Edit</t>
+  </si>
+  <si>
+    <t>System Prompt</t>
+  </si>
+  <si>
+    <t>Character Background</t>
+  </si>
+  <si>
+    <t>Character Relationships</t>
+  </si>
+  <si>
+    <t>Character Relationships on the Current Map</t>
+  </si>
+  <si>
+    <t>Select the Characters For the Relationship</t>
+  </si>
+  <si>
+    <t>&lt;color=gray&gt;&lt;未提供&gt;&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=gray&gt;&lt;Not Provided&gt;&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Current Zone Prompt - &lt;i&gt;{0}&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>現在のエリアプロンプト - &lt;i&gt;{0}&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>push</t>
+  </si>
+  <si>
+    <t>を押しのけた</t>
+  </si>
+  <si>
+    <t>em_push</t>
   </si>
 </sst>
 </file>
@@ -1087,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFC101"/>
+  <dimension ref="A1:XFC110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5"/>
@@ -1140,16 +1248,16 @@
     </row>
     <row r="4" spans="1:4" s="6" customFormat="1" ht="23.25" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="23.25">
@@ -1158,7 +1266,7 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>8</v>
@@ -1170,7 +1278,7 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>9</v>
@@ -1182,7 +1290,7 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>10</v>
@@ -1194,7 +1302,7 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>12</v>
@@ -1206,7 +1314,7 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>14</v>
@@ -1218,7 +1326,7 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>16</v>
@@ -1230,7 +1338,7 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>18</v>
@@ -1242,10 +1350,10 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="23.25">
@@ -1254,10 +1362,10 @@
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="23.25">
@@ -1266,7 +1374,7 @@
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>22</v>
@@ -1278,7 +1386,7 @@
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>24</v>
@@ -1290,7 +1398,7 @@
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>26</v>
@@ -1302,10 +1410,10 @@
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="46.5">
@@ -1314,7 +1422,7 @@
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>29</v>
@@ -1326,7 +1434,7 @@
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>31</v>
@@ -1338,166 +1446,166 @@
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="23.25">
       <c r="A21" s="5" t="s">
-        <v>97</v>
+        <v>224</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5" t="s">
-        <v>169</v>
+        <v>225</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>98</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="23.25">
       <c r="A22" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="23.25">
       <c r="A23" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="23.25">
       <c r="A24" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="23.25">
       <c r="A25" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="23.25">
       <c r="A26" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="23.25">
       <c r="A27" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="23.25">
       <c r="A28" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="23.25">
       <c r="A29" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="23.25">
       <c r="A30" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="23.25">
       <c r="A31" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="23.25">
       <c r="A32" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="69.75">
       <c r="A33" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="23.25">
@@ -1506,7 +1614,7 @@
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>73</v>
@@ -1518,7 +1626,7 @@
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>72</v>
@@ -1530,7 +1638,7 @@
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>71</v>
@@ -1542,7 +1650,7 @@
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>74</v>
@@ -1554,7 +1662,7 @@
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>75</v>
@@ -1566,7 +1674,7 @@
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>76</v>
@@ -1578,10 +1686,10 @@
       </c>
       <c r="B40" s="5"/>
       <c r="C40" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="23.25">
@@ -1590,7 +1698,7 @@
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>77</v>
@@ -1602,7 +1710,7 @@
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>78</v>
@@ -1614,7 +1722,7 @@
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>79</v>
@@ -1626,7 +1734,7 @@
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>80</v>
@@ -1638,7 +1746,7 @@
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>81</v>
@@ -1650,7 +1758,7 @@
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>82</v>
@@ -1662,7 +1770,7 @@
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>83</v>
@@ -1674,7 +1782,7 @@
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>84</v>
@@ -1686,7 +1794,7 @@
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>85</v>
@@ -1698,7 +1806,7 @@
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>86</v>
@@ -1710,7 +1818,7 @@
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>87</v>
@@ -1722,7 +1830,7 @@
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>88</v>
@@ -1734,7 +1842,7 @@
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>89</v>
@@ -1746,7 +1854,7 @@
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>90</v>
@@ -1758,7 +1866,7 @@
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>78</v>
@@ -1770,7 +1878,7 @@
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>79</v>
@@ -1782,7 +1890,7 @@
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>80</v>
@@ -1794,7 +1902,7 @@
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>81</v>
@@ -1806,7 +1914,7 @@
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>82</v>
@@ -1818,7 +1926,7 @@
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>83</v>
@@ -1830,7 +1938,7 @@
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>84</v>
@@ -1842,7 +1950,7 @@
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>85</v>
@@ -1854,7 +1962,7 @@
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>86</v>
@@ -1866,7 +1974,7 @@
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>87</v>
@@ -1878,7 +1986,7 @@
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>88</v>
@@ -1890,7 +1998,7 @@
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>89</v>
@@ -1902,7 +2010,7 @@
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>90</v>
@@ -1914,7 +2022,7 @@
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>91</v>
@@ -1926,7 +2034,7 @@
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>92</v>
@@ -1938,7 +2046,7 @@
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>93</v>
@@ -1950,7 +2058,7 @@
       </c>
       <c r="B71" s="5"/>
       <c r="C71" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>94</v>
@@ -1962,7 +2070,7 @@
       </c>
       <c r="B72" s="5"/>
       <c r="C72" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>95</v>
@@ -1970,179 +2078,179 @@
     </row>
     <row r="73" spans="1:4" ht="23.25">
       <c r="A73" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="23.25">
       <c r="A74" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B74" s="5"/>
       <c r="C74" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="23.25">
       <c r="A75" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B75" s="5"/>
       <c r="C75" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="46.5">
       <c r="A76" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B76" s="5"/>
       <c r="C76" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="46.5">
       <c r="A77" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="23.25">
       <c r="A78" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B78" s="5"/>
       <c r="C78" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="46.5">
       <c r="A79" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="23.25">
       <c r="A80" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="23.25">
       <c r="A81" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="23.25">
       <c r="A82" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="23.25">
       <c r="A83" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D83" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="23.25">
       <c r="A84" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B84" s="5"/>
       <c r="C84" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="23.25">
       <c r="A85" s="5" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="23.25">
       <c r="A86" s="5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B86" s="5"/>
       <c r="C86" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="23.25">
       <c r="A87" s="5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B87" s="5"/>
       <c r="C87" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>89</v>
@@ -2150,111 +2258,237 @@
     </row>
     <row r="88" spans="1:4" ht="23.25">
       <c r="A88" s="5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B88" s="5"/>
       <c r="C88" s="5" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="23.25">
       <c r="A89" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B89" s="5"/>
       <c r="C89" s="5" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="23.25">
       <c r="A90" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B90" s="5"/>
       <c r="C90" s="5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="23.25">
       <c r="A91" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B91" s="5"/>
       <c r="C91" s="5" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="D91" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="23.25">
+      <c r="A92" s="5" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" ht="23.25">
-      <c r="A92" s="5"/>
       <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
+      <c r="C92" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="93" spans="1:4" ht="23.25">
-      <c r="A93" s="5"/>
+      <c r="A93" s="5" t="s">
+        <v>230</v>
+      </c>
       <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
+      <c r="C93" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="94" spans="1:4" ht="23.25">
-      <c r="A94" s="5"/>
+      <c r="A94" s="5" t="s">
+        <v>232</v>
+      </c>
       <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
+      <c r="C94" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="95" spans="1:4" ht="23.25">
-      <c r="A95" s="5"/>
+      <c r="A95" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
+      <c r="C95" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="96" spans="1:4" ht="23.25">
-      <c r="A96" s="5"/>
+      <c r="A96" s="5" t="s">
+        <v>235</v>
+      </c>
       <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
+      <c r="C96" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="97" spans="1:4" ht="23.25">
-      <c r="A97" s="5"/>
+      <c r="A97" s="5" t="s">
+        <v>237</v>
+      </c>
       <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
+      <c r="C97" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="98" spans="1:4" ht="23.25">
-      <c r="A98" s="5"/>
+      <c r="A98" s="5" t="s">
+        <v>239</v>
+      </c>
       <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
+      <c r="C98" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="99" spans="1:4" ht="23.25">
-      <c r="A99" s="5"/>
+      <c r="A99" s="5" t="s">
+        <v>241</v>
+      </c>
       <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
+      <c r="C99" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="100" spans="1:4" ht="23.25">
-      <c r="A100" s="5"/>
+      <c r="A100" s="5" t="s">
+        <v>242</v>
+      </c>
       <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
+      <c r="C100" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="101" spans="1:4" ht="23.25">
-      <c r="A101" s="5"/>
+      <c r="A101" s="5" t="s">
+        <v>244</v>
+      </c>
       <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
+      <c r="C101" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="23.25">
+      <c r="A102" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="23.25">
+      <c r="A103" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="23.25">
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+    </row>
+    <row r="105" spans="1:4" ht="23.25">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+    </row>
+    <row r="106" spans="1:4" ht="23.25">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+    </row>
+    <row r="107" spans="1:4" ht="23.25">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+    </row>
+    <row r="108" spans="1:4" ht="23.25">
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+    </row>
+    <row r="109" spans="1:4" ht="23.25">
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+    </row>
+    <row r="110" spans="1:4" ht="23.25">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Emmersive/package/LangMod/EN/emmersive_localizations_en.xlsx
+++ b/Emmersive/package/LangMod/EN/emmersive_localizations_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\Emmersive\package\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16A5180-77F6-4323-A3C3-E55B48F5D922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2584D34-0FCB-43F0-936B-4D9A610624B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16035" yWindow="1785" windowWidth="26220" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10620" yWindow="2115" windowWidth="26220" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="286">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -837,6 +837,69 @@
   </si>
   <si>
     <t>em_push</t>
+  </si>
+  <si>
+    <t>em_hostility_enemy</t>
+  </si>
+  <si>
+    <t>em_hostility_neutral</t>
+  </si>
+  <si>
+    <t>em_hostility_friend</t>
+  </si>
+  <si>
+    <t>em_hostility_ally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">敵  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">中立  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">友好  </t>
+  </si>
+  <si>
+    <t>同盟</t>
+  </si>
+  <si>
+    <t>Enemy</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Friendly</t>
+  </si>
+  <si>
+    <t>Ally</t>
+  </si>
+  <si>
+    <t>リクエストボディのみを生成してください</t>
+  </si>
+  <si>
+    <t>em_ui_scheduler_dry</t>
+  </si>
+  <si>
+    <t>em_ui_recent_action</t>
+  </si>
+  <si>
+    <t>最近の会話</t>
+  </si>
+  <si>
+    <t>Fake Request</t>
+  </si>
+  <si>
+    <t>Recent Actions</t>
+  </si>
+  <si>
+    <t>em_ui_recent_requests</t>
+  </si>
+  <si>
+    <t>最近のリクエスト</t>
+  </si>
+  <si>
+    <t>Recent Requests</t>
   </si>
 </sst>
 </file>
@@ -901,14 +964,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1197,22 +1257,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFC110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="23.25"/>
   <cols>
-    <col min="1" max="1" width="63.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="135.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="136.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="63.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="4" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="135.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="136.85546875" style="4" customWidth="1"/>
     <col min="5" max="5" width="0" style="1" hidden="1"/>
     <col min="6" max="16383" width="9" style="1" hidden="1"/>
     <col min="16384" max="16384" width="6.7109375" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1226,7 +1286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="23.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1240,1255 +1300,1189 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="23.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" s="6" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:4" s="5" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A4" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="23.25">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="23.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="23.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="23.25">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="23.25">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="23.25">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="23.25">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="23.25">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:4">
+      <c r="A12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="23.25">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="23.25">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:4">
+      <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="3" customFormat="1" ht="23.25">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:4" s="3" customFormat="1">
+      <c r="A15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="23.25">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:4">
+      <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="23.25">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="46.5">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="23.25">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="23.25">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="23.25">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:4">
+      <c r="A21" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="23.25">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:4">
+      <c r="A22" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="23.25">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:4">
+      <c r="A23" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="23.25">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="23.25">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="23.25">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="23.25">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:4">
+      <c r="A27" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="23.25">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:4">
+      <c r="A28" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="23.25">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:4">
+      <c r="A29" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="23.25">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:4">
+      <c r="A30" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="23.25">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:4">
+      <c r="A31" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="23.25">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:4">
+      <c r="A32" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="69.75">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="23.25">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:4">
+      <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="23.25">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:4">
+      <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="23.25">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:4">
+      <c r="A36" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="23.25">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:4">
+      <c r="A37" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="23.25">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:4">
+      <c r="A38" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="3" customFormat="1" ht="23.25">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="1:4" s="3" customFormat="1">
+      <c r="A39" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5" t="s">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="23.25">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:4">
+      <c r="A40" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" t="s">
+      <c r="C40" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="23.25">
-      <c r="A41" s="5" t="s">
+    <row r="41" spans="1:4">
+      <c r="A41" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="23.25">
-      <c r="A42" s="5" t="s">
+    <row r="42" spans="1:4">
+      <c r="A42" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="23.25">
-      <c r="A43" s="5" t="s">
+    <row r="43" spans="1:4">
+      <c r="A43" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="23.25">
-      <c r="A44" s="5" t="s">
+    <row r="44" spans="1:4">
+      <c r="A44" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="23.25">
-      <c r="A45" s="5" t="s">
+    <row r="45" spans="1:4">
+      <c r="A45" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="23.25">
-      <c r="A46" s="5" t="s">
+    <row r="46" spans="1:4">
+      <c r="A46" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="23.25">
-      <c r="A47" s="5" t="s">
+    <row r="47" spans="1:4">
+      <c r="A47" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="23.25">
-      <c r="A48" s="5" t="s">
+    <row r="48" spans="1:4">
+      <c r="A48" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="23.25">
-      <c r="A49" s="5" t="s">
+    <row r="49" spans="1:4">
+      <c r="A49" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="23.25">
-      <c r="A50" s="5" t="s">
+    <row r="50" spans="1:4">
+      <c r="A50" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="23.25">
-      <c r="A51" s="5" t="s">
+    <row r="51" spans="1:4">
+      <c r="A51" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="23.25">
-      <c r="A52" s="5" t="s">
+    <row r="52" spans="1:4">
+      <c r="A52" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="23.25">
-      <c r="A53" s="5" t="s">
+    <row r="53" spans="1:4">
+      <c r="A53" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="23.25">
-      <c r="A54" s="5" t="s">
+    <row r="54" spans="1:4">
+      <c r="A54" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="23.25">
-      <c r="A55" s="5" t="s">
+    <row r="55" spans="1:4">
+      <c r="A55" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="23.25">
-      <c r="A56" s="5" t="s">
+    <row r="56" spans="1:4">
+      <c r="A56" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="23.25">
-      <c r="A57" s="5" t="s">
+    <row r="57" spans="1:4">
+      <c r="A57" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="23.25">
-      <c r="A58" s="5" t="s">
+    <row r="58" spans="1:4">
+      <c r="A58" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="23.25">
-      <c r="A59" s="5" t="s">
+    <row r="59" spans="1:4">
+      <c r="A59" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="23.25">
-      <c r="A60" s="5" t="s">
+    <row r="60" spans="1:4">
+      <c r="A60" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="2" customFormat="1" ht="23.25">
-      <c r="A61" s="5" t="s">
+    <row r="61" spans="1:4" s="2" customFormat="1">
+      <c r="A61" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5" t="s">
+      <c r="B61" s="4"/>
+      <c r="C61" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="2" customFormat="1" ht="23.25">
-      <c r="A62" s="5" t="s">
+    <row r="62" spans="1:4" s="2" customFormat="1">
+      <c r="A62" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5" t="s">
+      <c r="B62" s="4"/>
+      <c r="C62" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="23.25">
-      <c r="A63" s="5" t="s">
+    <row r="63" spans="1:4">
+      <c r="A63" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="23.25">
-      <c r="A64" s="5" t="s">
+    <row r="64" spans="1:4">
+      <c r="A64" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="23.25">
-      <c r="A65" s="5" t="s">
+    <row r="65" spans="1:4">
+      <c r="A65" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="23.25">
-      <c r="A66" s="5" t="s">
+    <row r="66" spans="1:4">
+      <c r="A66" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="23.25">
-      <c r="A67" s="5" t="s">
+    <row r="67" spans="1:4">
+      <c r="A67" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="23.25">
-      <c r="A68" s="5" t="s">
+    <row r="68" spans="1:4">
+      <c r="A68" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="23.25">
-      <c r="A69" s="5" t="s">
+    <row r="69" spans="1:4">
+      <c r="A69" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="23.25">
-      <c r="A70" s="5" t="s">
+    <row r="70" spans="1:4">
+      <c r="A70" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="23.25">
-      <c r="A71" s="5" t="s">
+    <row r="71" spans="1:4">
+      <c r="A71" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="23.25">
-      <c r="A72" s="5" t="s">
+    <row r="72" spans="1:4">
+      <c r="A72" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="23.25">
-      <c r="A73" s="5" t="s">
+    <row r="73" spans="1:4">
+      <c r="A73" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="23.25">
-      <c r="A74" s="5" t="s">
+    <row r="74" spans="1:4">
+      <c r="A74" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="4" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="23.25">
-      <c r="A75" s="5" t="s">
+    <row r="75" spans="1:4">
+      <c r="A75" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="4" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="46.5">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="4" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="46.5">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D77" s="4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="23.25">
-      <c r="A78" s="5" t="s">
+    <row r="78" spans="1:4">
+      <c r="A78" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="4" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="46.5">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="23.25">
-      <c r="A80" s="5" t="s">
+    <row r="80" spans="1:4">
+      <c r="A80" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D80" s="4" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="23.25">
-      <c r="A81" s="5" t="s">
+    <row r="81" spans="1:4">
+      <c r="A81" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5" t="s">
+      <c r="C81" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D81" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="23.25">
-      <c r="A82" s="5" t="s">
+    <row r="82" spans="1:4">
+      <c r="A82" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D82" s="4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="23.25">
-      <c r="A83" s="5" t="s">
+    <row r="83" spans="1:4">
+      <c r="A83" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D83" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="23.25">
-      <c r="A84" s="5" t="s">
+    <row r="84" spans="1:4">
+      <c r="A84" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D84" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="23.25">
-      <c r="A85" s="5" t="s">
+    <row r="85" spans="1:4">
+      <c r="A85" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D85" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="23.25">
-      <c r="A86" s="5" t="s">
+    <row r="86" spans="1:4">
+      <c r="A86" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D86" s="4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="23.25">
-      <c r="A87" s="5" t="s">
+    <row r="87" spans="1:4">
+      <c r="A87" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D87" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="23.25">
-      <c r="A88" s="5" t="s">
+    <row r="88" spans="1:4">
+      <c r="A88" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D88" s="4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="23.25">
-      <c r="A89" s="5" t="s">
+    <row r="89" spans="1:4">
+      <c r="A89" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5" t="s">
+      <c r="C89" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D89" s="4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="23.25">
-      <c r="A90" s="5" t="s">
+    <row r="90" spans="1:4">
+      <c r="A90" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D90" s="4" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="23.25">
-      <c r="A91" s="5" t="s">
+    <row r="91" spans="1:4">
+      <c r="A91" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5" t="s">
+      <c r="C91" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D91" s="4" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="23.25">
-      <c r="A92" s="5" t="s">
+    <row r="92" spans="1:4">
+      <c r="A92" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5" t="s">
+      <c r="C92" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D92" s="4" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="23.25">
-      <c r="A93" s="5" t="s">
+    <row r="93" spans="1:4">
+      <c r="A93" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5" t="s">
+      <c r="C93" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D93" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="23.25">
-      <c r="A94" s="5" t="s">
+    <row r="94" spans="1:4">
+      <c r="A94" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5" t="s">
+      <c r="C94" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D94" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="23.25">
-      <c r="A95" s="5" t="s">
+    <row r="95" spans="1:4">
+      <c r="A95" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5" t="s">
+      <c r="C95" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D95" s="4" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="23.25">
-      <c r="A96" s="5" t="s">
+    <row r="96" spans="1:4">
+      <c r="A96" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D96" s="4" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="23.25">
-      <c r="A97" s="5" t="s">
+    <row r="97" spans="1:4">
+      <c r="A97" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5" t="s">
+      <c r="C97" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D97" s="4" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="23.25">
-      <c r="A98" s="5" t="s">
+    <row r="98" spans="1:4">
+      <c r="A98" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5" t="s">
+      <c r="C98" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D98" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="23.25">
-      <c r="A99" s="5" t="s">
+    <row r="99" spans="1:4">
+      <c r="A99" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5" t="s">
+      <c r="C99" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="D99" s="4" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="23.25">
-      <c r="A100" s="5" t="s">
+    <row r="100" spans="1:4">
+      <c r="A100" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5" t="s">
+      <c r="C100" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D100" s="4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="23.25">
-      <c r="A101" s="5" t="s">
+    <row r="101" spans="1:4">
+      <c r="A101" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5" t="s">
+      <c r="C101" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="D101" s="4" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="23.25">
-      <c r="A102" s="5" t="s">
+    <row r="102" spans="1:4">
+      <c r="A102" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5" t="s">
+      <c r="C102" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="D102" s="4" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="23.25">
-      <c r="A103" s="5" t="s">
+    <row r="103" spans="1:4">
+      <c r="A103" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5" t="s">
+      <c r="C103" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D103" s="4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="23.25">
-      <c r="A104" s="5"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-    </row>
-    <row r="105" spans="1:4" ht="23.25">
-      <c r="A105" s="5"/>
-      <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-    </row>
-    <row r="106" spans="1:4" ht="23.25">
-      <c r="A106" s="5"/>
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-    </row>
-    <row r="107" spans="1:4" ht="23.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-    </row>
-    <row r="108" spans="1:4" ht="23.25">
-      <c r="A108" s="5"/>
-      <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-    </row>
-    <row r="109" spans="1:4" ht="23.25">
-      <c r="A109" s="5"/>
-      <c r="B109" s="5"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-    </row>
-    <row r="110" spans="1:4" ht="23.25">
-      <c r="A110" s="5"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
+    <row r="104" spans="1:4">
+      <c r="A104" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>285</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Emmersive/package/LangMod/EN/emmersive_localizations_en.xlsx
+++ b/Emmersive/package/LangMod/EN/emmersive_localizations_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\Emmersive\package\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2584D34-0FCB-43F0-936B-4D9A610624B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6080E8F5-5DE6-4D5A-A3F6-B12D201D9E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10620" yWindow="2115" windowWidth="26220" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10965" yWindow="2460" windowWidth="26220" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -806,12 +806,6 @@
     <t>System Prompt</t>
   </si>
   <si>
-    <t>Character Background</t>
-  </si>
-  <si>
-    <t>Character Relationships</t>
-  </si>
-  <si>
     <t>Character Relationships on the Current Map</t>
   </si>
   <si>
@@ -900,6 +894,12 @@
   </si>
   <si>
     <t>Recent Requests</t>
+  </si>
+  <si>
+    <t>Relationships</t>
+  </si>
+  <si>
+    <t>Backgrounds</t>
   </si>
 </sst>
 </file>
@@ -1257,8 +1257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFC110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="23.25"/>
@@ -2269,10 +2269,10 @@
         <v>227</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2313,10 +2313,10 @@
         <v>234</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2338,7 +2338,7 @@
         <v>238</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2360,7 +2360,7 @@
         <v>222</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2371,7 +2371,7 @@
         <v>243</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2382,7 +2382,7 @@
         <v>245</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2398,90 +2398,90 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C109" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D109" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D110" s="4" t="s">
         <v>283</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/Emmersive/package/LangMod/EN/emmersive_localizations_en.xlsx
+++ b/Emmersive/package/LangMod/EN/emmersive_localizations_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\Emmersive\package\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6080E8F5-5DE6-4D5A-A3F6-B12D201D9E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635E7AF8-4B72-4114-A417-51D8579C15B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10965" yWindow="2460" windowWidth="26220" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="292">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -900,6 +900,24 @@
   </si>
   <si>
     <t>Backgrounds</t>
+  </si>
+  <si>
+    <t>em_ui_clear_active</t>
+  </si>
+  <si>
+    <t>プロンプトワードリソースがリロードされました</t>
+  </si>
+  <si>
+    <t>em_ui_scheduler_toggle</t>
+  </si>
+  <si>
+    <t>AI サービスのステータス: {0}</t>
+  </si>
+  <si>
+    <t>Reloaded Prompt Resources</t>
+  </si>
+  <si>
+    <t>AI Service Status：{0}</t>
   </si>
 </sst>
 </file>
@@ -1255,10 +1273,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFC110"/>
+  <dimension ref="A1:XFC112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="23.25"/>
@@ -2484,6 +2502,28 @@
         <v>283</v>
       </c>
     </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Emmersive/package/LangMod/EN/emmersive_localizations_en.xlsx
+++ b/Emmersive/package/LangMod/EN/emmersive_localizations_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\Emmersive\package\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635E7AF8-4B72-4114-A417-51D8579C15B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080758AC-DC93-42A1-B78A-8FAC3CB5AB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10965" yWindow="2460" windowWidth="26220" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10620" yWindow="2115" windowWidth="26220" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="300">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -918,6 +918,30 @@
   </si>
   <si>
     <t>AI Service Status：{0}</t>
+  </si>
+  <si>
+    <t>em_ui_global_cooldown</t>
+  </si>
+  <si>
+    <t>Global Request Cooldown(s)</t>
+  </si>
+  <si>
+    <t>em_ui_tab_whitelist</t>
+  </si>
+  <si>
+    <t>Whitelist</t>
+  </si>
+  <si>
+    <t>ホワイトリスト</t>
+  </si>
+  <si>
+    <t>em_ui_whitelist</t>
+  </si>
+  <si>
+    <t>AI Service Whitelist Mode: {0}</t>
+  </si>
+  <si>
+    <t>AIサービスホワイトリストモード：{0}</t>
   </si>
 </sst>
 </file>
@@ -1273,10 +1297,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFC112"/>
+  <dimension ref="A1:XFC115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C114" sqref="C114"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="23.25"/>
@@ -2524,6 +2548,39 @@
         <v>291</v>
       </c>
     </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Emmersive/package/LangMod/EN/emmersive_localizations_en.xlsx
+++ b/Emmersive/package/LangMod/EN/emmersive_localizations_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\Emmersive\package\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080758AC-DC93-42A1-B78A-8FAC3CB5AB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294C1203-61B2-41FF-BDC1-DC924EA72542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10620" yWindow="2115" windowWidth="26220" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="306">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -942,6 +942,24 @@
   </si>
   <si>
     <t>AIサービスホワイトリストモード：{0}</t>
+  </si>
+  <si>
+    <t>em_ui_active_blacklist</t>
+  </si>
+  <si>
+    <t>アクティブなブラックリスト</t>
+  </si>
+  <si>
+    <t>em_ui_active_whitelist</t>
+  </si>
+  <si>
+    <t>アクティブなホワイトリスト</t>
+  </si>
+  <si>
+    <t>Active Blacklist Characters</t>
+  </si>
+  <si>
+    <t>Active Whitelist Characters</t>
   </si>
 </sst>
 </file>
@@ -1297,10 +1315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFC115"/>
+  <dimension ref="A1:XFC117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="23.25"/>
@@ -2581,6 +2599,28 @@
         <v>298</v>
       </c>
     </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Emmersive/package/LangMod/EN/emmersive_localizations_en.xlsx
+++ b/Emmersive/package/LangMod/EN/emmersive_localizations_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\Emmersive\package\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294C1203-61B2-41FF-BDC1-DC924EA72542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA608C9-18B5-4C27-A887-A119456DA961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10620" yWindow="2115" windowWidth="26220" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21780" yWindow="2220" windowWidth="26220" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="309">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -960,6 +960,15 @@
   </si>
   <si>
     <t>Active Whitelist Characters</t>
+  </si>
+  <si>
+    <t>em_ui_api_guide</t>
+  </si>
+  <si>
+    <t>&lt;color=blue&gt;API Setup Guide&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=blue&gt;API設定ガイド&lt;/color&gt;</t>
   </si>
 </sst>
 </file>
@@ -1315,10 +1324,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFC117"/>
+  <dimension ref="A1:XFC118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+      <selection activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="23.25"/>
@@ -2621,6 +2630,17 @@
         <v>305</v>
       </c>
     </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Emmersive/package/LangMod/EN/emmersive_localizations_en.xlsx
+++ b/Emmersive/package/LangMod/EN/emmersive_localizations_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\Emmersive\package\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA608C9-18B5-4C27-A887-A119456DA961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB19C7C-0465-47CA-BADF-AAD8ACF380FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21780" yWindow="2220" windowWidth="26220" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12210" yWindow="2220" windowWidth="35790" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="312">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -969,13 +969,22 @@
   </si>
   <si>
     <t>&lt;color=blue&gt;API設定ガイド&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>em_ui_use_pop</t>
+  </si>
+  <si>
+    <t>ポップアップバブルの表示</t>
+  </si>
+  <si>
+    <t>Enable Popup Chat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1012,6 +1021,12 @@
       <name val="Cascadia Code"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0F1115"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1033,7 +1048,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1044,6 +1059,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1324,10 +1340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFC118"/>
+  <dimension ref="A1:XFC119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C125" sqref="C125"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="23.25"/>
@@ -2641,6 +2657,17 @@
         <v>307</v>
       </c>
     </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Emmersive/package/LangMod/EN/emmersive_localizations_en.xlsx
+++ b/Emmersive/package/LangMod/EN/emmersive_localizations_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\Emmersive\package\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB19C7C-0465-47CA-BADF-AAD8ACF380FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47B1A80-2D9D-4772-BB38-F99C7F142537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12210" yWindow="2220" windowWidth="35790" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="318">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -978,6 +978,24 @@
   </si>
   <si>
     <t>Enable Popup Chat</t>
+  </si>
+  <si>
+    <t>em_ui_filter</t>
+  </si>
+  <si>
+    <t>em_ui_add</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t xml:space="preserve">追加 </t>
+  </si>
+  <si>
+    <t>最近の会話フィルター</t>
+  </si>
+  <si>
+    <t>Recent Actions Filter</t>
   </si>
 </sst>
 </file>
@@ -1340,10 +1358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFC119"/>
+  <dimension ref="A1:XFC121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="23.25"/>
@@ -2668,6 +2686,28 @@
         <v>311</v>
       </c>
     </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Emmersive/package/LangMod/EN/emmersive_localizations_en.xlsx
+++ b/Emmersive/package/LangMod/EN/emmersive_localizations_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\Emmersive\package\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47B1A80-2D9D-4772-BB38-F99C7F142537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8318F9-6B30-4594-A6B5-B4799C136591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12210" yWindow="2220" windowWidth="35790" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19320" yWindow="3060" windowWidth="25710" windowHeight="16095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="327">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -330,9 +330,6 @@
     <t>Reload</t>
   </si>
   <si>
-    <t>Add OpenAI Provider</t>
-  </si>
-  <si>
     <t xml:space="preserve">AIサービス  </t>
   </si>
   <si>
@@ -458,9 +455,6 @@
   </si>
   <si>
     <t>Emmersive設定</t>
-  </si>
-  <si>
-    <t>OpenAIサービスを追加</t>
   </si>
   <si>
     <t>Emmersive</t>
@@ -995,7 +989,48 @@
     <t>最近の会話フィルター</t>
   </si>
   <si>
-    <t>Recent Actions Filter</t>
+    <t>Add OpenAI-Compatible</t>
+  </si>
+  <si>
+    <t>OpenAI互換を追加</t>
+  </si>
+  <si>
+    <t>key_Chat</t>
+  </si>
+  <si>
+    <t>チャット</t>
+  </si>
+  <si>
+    <t>Chat</t>
+  </si>
+  <si>
+    <t>em_ui_chat_keymap</t>
+  </si>
+  <si>
+    <t>チャットボタンをバインド</t>
+  </si>
+  <si>
+    <t>Bind Chat Key</t>
+  </si>
+  <si>
+    <t>em_ui_warn_say_something</t>
+  </si>
+  <si>
+    <t>「Say Something」がインストールされていることを検出しました！  
+Emmersiveは現在、類似の機能を備えており、AI対話の同期も可能です。  
+設定メニューにてキー設定をご確認ください。  
+競合を避けるため、「Say Something」の購読を解除することを推奨します。  
+また、EmmersiveのチャットはAIを利用せずに使用することも可能ですので、設定ファイルの変更をお願いします。</t>
+  </si>
+  <si>
+    <t>Say Something mod detected.
+Emmersive now has built-in chat, and can initiate AI talk.
+Please visit the config panel for keybind.
+It's recommended to unsubscribe the mod.
+You can also use the player chat without AI by changing the mod configuration.</t>
+  </si>
+  <si>
+    <t>Recent Actions Ignore Filter</t>
   </si>
 </sst>
 </file>
@@ -1066,7 +1101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1078,6 +1113,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1358,10 +1396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFC121"/>
+  <dimension ref="A1:XFC124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D123" sqref="D123"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="23.25"/>
@@ -1405,16 +1443,16 @@
     </row>
     <row r="4" spans="1:4" s="5" customFormat="1" ht="23.25" customHeight="1">
       <c r="A4" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1422,7 +1460,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>8</v>
@@ -1433,7 +1471,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>9</v>
@@ -1444,7 +1482,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>10</v>
@@ -1455,7 +1493,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>12</v>
@@ -1466,7 +1504,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>14</v>
@@ -1477,7 +1515,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>16</v>
@@ -1488,7 +1526,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>18</v>
@@ -1499,10 +1537,10 @@
         <v>19</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>141</v>
+        <v>316</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>98</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1510,10 +1548,10 @@
         <v>20</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1521,7 +1559,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>22</v>
@@ -1533,7 +1571,7 @@
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>24</v>
@@ -1544,7 +1582,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>26</v>
@@ -1555,10 +1593,10 @@
         <v>27</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="46.5">
@@ -1566,7 +1604,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>29</v>
@@ -1577,7 +1615,7 @@
         <v>30</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>31</v>
@@ -1588,7 +1626,7 @@
         <v>96</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>97</v>
@@ -1596,145 +1634,145 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="69.75">
       <c r="A33" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>176</v>
-      </c>
       <c r="D33" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1742,7 +1780,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>73</v>
@@ -1753,7 +1791,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>72</v>
@@ -1764,7 +1802,7 @@
         <v>34</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>71</v>
@@ -1775,7 +1813,7 @@
         <v>35</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>74</v>
@@ -1786,7 +1824,7 @@
         <v>36</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>75</v>
@@ -1798,7 +1836,7 @@
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>76</v>
@@ -1809,10 +1847,10 @@
         <v>38</v>
       </c>
       <c r="C40" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1820,7 +1858,7 @@
         <v>39</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>77</v>
@@ -1831,7 +1869,7 @@
         <v>40</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>78</v>
@@ -1842,7 +1880,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>79</v>
@@ -1853,7 +1891,7 @@
         <v>42</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>80</v>
@@ -1864,7 +1902,7 @@
         <v>43</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>81</v>
@@ -1875,7 +1913,7 @@
         <v>44</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>82</v>
@@ -1886,7 +1924,7 @@
         <v>45</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>83</v>
@@ -1897,7 +1935,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>84</v>
@@ -1908,7 +1946,7 @@
         <v>47</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>85</v>
@@ -1919,7 +1957,7 @@
         <v>48</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>86</v>
@@ -1930,7 +1968,7 @@
         <v>49</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>87</v>
@@ -1941,7 +1979,7 @@
         <v>50</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>88</v>
@@ -1952,7 +1990,7 @@
         <v>51</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>89</v>
@@ -1963,7 +2001,7 @@
         <v>52</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>90</v>
@@ -1974,7 +2012,7 @@
         <v>53</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>78</v>
@@ -1985,7 +2023,7 @@
         <v>54</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>79</v>
@@ -1996,7 +2034,7 @@
         <v>55</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>80</v>
@@ -2007,7 +2045,7 @@
         <v>56</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>81</v>
@@ -2018,7 +2056,7 @@
         <v>57</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>82</v>
@@ -2029,7 +2067,7 @@
         <v>58</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>83</v>
@@ -2041,7 +2079,7 @@
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>84</v>
@@ -2053,7 +2091,7 @@
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>85</v>
@@ -2064,7 +2102,7 @@
         <v>61</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>86</v>
@@ -2075,7 +2113,7 @@
         <v>62</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>87</v>
@@ -2086,7 +2124,7 @@
         <v>63</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>88</v>
@@ -2097,7 +2135,7 @@
         <v>64</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>89</v>
@@ -2108,7 +2146,7 @@
         <v>65</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>90</v>
@@ -2119,7 +2157,7 @@
         <v>66</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>91</v>
@@ -2130,7 +2168,7 @@
         <v>67</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>92</v>
@@ -2141,7 +2179,7 @@
         <v>68</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>93</v>
@@ -2152,7 +2190,7 @@
         <v>69</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>94</v>
@@ -2163,7 +2201,7 @@
         <v>70</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>95</v>
@@ -2171,164 +2209,164 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="46.5">
       <c r="A76" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="46.5">
       <c r="A77" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="46.5">
       <c r="A79" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D82" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>209</v>
-      </c>
       <c r="D84" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>89</v>
@@ -2336,376 +2374,409 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D89" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D90" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C109" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D109" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D110" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C112" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D112" s="4" t="s">
         <v>289</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C114" s="4" t="s">
-        <v>296</v>
-      </c>
       <c r="D114" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C115" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="C115" s="4" t="s">
-        <v>299</v>
-      </c>
       <c r="D115" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C117" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D117" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C118" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="C118" s="4" t="s">
-        <v>308</v>
-      </c>
       <c r="D118" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D119" s="4" t="s">
         <v>309</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C121" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="C121" s="4" t="s">
-        <v>315</v>
-      </c>
       <c r="D121" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="139.5">
+      <c r="A124" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
